--- a/biology/Zoologie/Bombina_orientalis/Bombina_orientalis.xlsx
+++ b/biology/Zoologie/Bombina_orientalis/Bombina_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sonneur oriental, Crapaud sonneur oriental
-Bombina orientalis, le Sonneur oriental ou Crapaud sonneur oriental, est une espèce d'amphibiens de la famille des Bombinatoridae[1].
+Bombina orientalis, le Sonneur oriental ou Crapaud sonneur oriental, est une espèce d'amphibiens de la famille des Bombinatoridae.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Russie dans les kraïs de Primorie et de Khabarovsk dans le sud-est de la Sibérie ;
 en Chine dans les provinces d'Heilongjiang, de Liaoning, de Shandong de Jiangsu et dans l'est de la Mongolie-Intérieure ;
 en Corée du Nord ;
 en Corée du Sud.
-Sa présence à Tsushima et à Kyūshū est considérée comme erronée par Matsui[2].
+Sa présence à Tsushima et à Kyūshū est considérée comme erronée par Matsui.
 Elle vit dans un climat allant de tempéré froid à tempéré chaud.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombina orientalis mesure de 40 à 70 mm. C'est un animal très aquatique, qui passe la plus grande partie de sa vie dans l'eau ou juste à côté. Son mode de vie ressemble en fait beaucoup à celui de son cousin, Bombina variegata, le sonneur à ventre jaune, assez commun en Europe centrale.
 La couleur dorsale est vert tacheté de noir. La couleur du ventre est rouge-orangée tachetée de noir. La peau du dos est verruqueuse, tandis que celle du ventre est lisse.
@@ -586,7 +602,9 @@
           <t>Particularité adaptative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bombina orientalis (mais aussi d'autres membres de la famille), lorsqu'ils sont dérangés ou agressés, présentent un comportement défensif : c'est le réflexe d'Unken. Les animaux ainsi dérangés s'arc-boutent sur leur dos et présentent leur face ventrale à leur assaillant, tandis qu'ils rapprochent leurs membres de leur corps.
 L'agresseur est alors averti, par le rouge du ventre que s'il va plus loin, il risque d'avoir des problèmes. Et c'est ce qui ne manque pas d'arriver si l'agression continue : les sonneurs à ventre rouge produisent alors un produit laiteux, toxique, qui suinte à travers certains pores de la peau, qui a un goût âcre et putride, et qui a pour effet de faire gonfler les muqueuses. Nul besoin de dire qu'un chien ou un serpent qui a essayé de manger une fois un crapaud, apprend vite à reconnaître et à éviter leurs couleurs vives.
@@ -618,7 +636,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction a lieu au printemps, au sortir de l'hibernation. Les mâles se différencient mal des femelles. Celles-ci sont cependant un peu plus grandes. C'est au printemps (saison des amours), que la distinction devient plus aisée :
 Les mâles montent sur les femelles pour l'amplexus lombaire (ils serrent les femelles juste au-dessus des hanches).
@@ -656,9 +676,11 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve assez couramment en terrariophilie[3], et sa reproduction en captivité est fréquente.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve assez couramment en terrariophilie, et sa reproduction en captivité est fréquente.
 </t>
         </is>
       </c>
@@ -687,7 +709,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boulenger, 1890 : A list of the reptiles and batrachians of Amoorland. Annals and Magazine of Natural History, ser. 6, vol. 5, p. 137-144 (texte intégral).</t>
         </is>
